--- a/accelerometer sensor values averaged.xlsx
+++ b/accelerometer sensor values averaged.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campus.mcgill.ca\EMF\ELE\ahuynh14\My Documents\ECSE_426_Lab3\Lab3_STM32F4Cube_Base_project\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ecse 426\Lab3_STM32F4Cube_Base_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>5 -50.691002</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Averages:</t>
+  </si>
+  <si>
+    <t>x offset</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +588,9 @@
       <c r="C9">
         <v>-51.910998999999997</v>
       </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -596,6 +602,15 @@
       <c r="C10">
         <v>-56.973998999999999</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -607,6 +622,15 @@
       <c r="C11">
         <v>-45.139999000000003</v>
       </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -618,6 +642,15 @@
       <c r="C12">
         <v>-24.033999999999999</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -629,6 +662,15 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="F13">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="G13">
+        <v>2.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -651,6 +693,15 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>-2.3453426852999999E-5</v>
+      </c>
+      <c r="F15">
+        <v>1.005282682668E-3</v>
+      </c>
+      <c r="G15">
+        <v>6.0252902179999996E-6</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -662,8 +713,17 @@
       <c r="C16">
         <v>-33.977001000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1.0236214073769999E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.5120897030000001E-6</v>
+      </c>
+      <c r="G16">
+        <v>2.3397795619E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>-50.507998999999998</v>
       </c>
@@ -673,8 +733,17 @@
       <c r="C17">
         <v>-37.698002000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3.2913625400000001E-7</v>
+      </c>
+      <c r="F17">
+        <v>-3.81232572E-6</v>
+      </c>
+      <c r="G17">
+        <v>9.793947431699999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>-38.735000999999997</v>
       </c>
@@ -684,8 +753,17 @@
       <c r="C18">
         <v>-41.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>-1.366720769154E-2</v>
+      </c>
+      <c r="F18">
+        <v>-3.0697541157660001E-3</v>
+      </c>
+      <c r="G18">
+        <v>2.1371111130789999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-60.756000999999998</v>
       </c>
@@ -696,7 +774,7 @@
         <v>-40.381999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-32.207999999999998</v>
       </c>
@@ -707,7 +785,7 @@
         <v>-37.942000999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-52.643002000000003</v>
       </c>
@@ -718,7 +796,7 @@
         <v>-23.667998999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-49.837001999999998</v>
       </c>
@@ -729,7 +807,7 @@
         <v>-45.018002000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-33.915999999999997</v>
       </c>
@@ -740,7 +818,7 @@
         <v>-32.330002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-60.633999000000003</v>
       </c>
@@ -751,7 +829,7 @@
         <v>-40.015999000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-49.776001000000001</v>
       </c>
@@ -762,12 +840,12 @@
         <v>-36.234000999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-58.011001999999998</v>
       </c>
@@ -778,7 +856,7 @@
         <v>6.2830000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-48.311999999999998</v>
       </c>
@@ -789,7 +867,7 @@
         <v>3.5990000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>-33.793999</f>
         <v>-33.793998999999999</v>
@@ -801,7 +879,7 @@
         <v>-0.36599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-39.650002000000001</v>
       </c>
@@ -812,7 +890,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-47.519001000000003</v>
       </c>
@@ -823,7 +901,7 @@
         <v>10.98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>-31.841999000000001</v>
       </c>
